--- a/rtss-pre1917/src/main/resources/ugvi/1892.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/1892.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5E64E7-0623-4806-AA39-DAFB38A313A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45258B5-E998-4A6F-9A63-0B514F336BA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25290" yWindow="330" windowWidth="13095" windowHeight="21630" activeTab="1" xr2:uid="{334BE92A-37F0-460E-BD8C-585EA0EF21D5}"/>
+    <workbookView xWindow="22335" yWindow="2580" windowWidth="9525" windowHeight="21630" activeTab="1" xr2:uid="{334BE92A-37F0-460E-BD8C-585EA0EF21D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -366,7 +366,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -417,7 +417,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1948,7 +1948,7 @@
   <dimension ref="A1:D118"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B104" sqref="B104"/>
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3138,7 +3138,7 @@
         <v>85</v>
       </c>
       <c r="B85" s="4">
-        <v>690671</v>
+        <v>600671</v>
       </c>
       <c r="C85" s="4">
         <v>22747</v>
@@ -3166,7 +3166,7 @@
         <v>87</v>
       </c>
       <c r="B87" s="4">
-        <v>143465</v>
+        <v>143456</v>
       </c>
       <c r="C87" s="4">
         <v>5030</v>

--- a/rtss-pre1917/src/main/resources/ugvi/1892.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/1892.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45258B5-E998-4A6F-9A63-0B514F336BA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8D958E-ADFF-4639-A656-FF4CA6C344EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22335" yWindow="2580" windowWidth="9525" windowHeight="21630" activeTab="1" xr2:uid="{334BE92A-37F0-460E-BD8C-585EA0EF21D5}"/>
+    <workbookView xWindow="18045" yWindow="1575" windowWidth="18495" windowHeight="21630" activeTab="2" xr2:uid="{334BE92A-37F0-460E-BD8C-585EA0EF21D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="notes" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="112">
   <si>
     <t>губ</t>
   </si>
@@ -359,6 +360,15 @@
   </si>
   <si>
     <t>Остр. Сахалин</t>
+  </si>
+  <si>
+    <t>Число рождений на Кавказе указано 283,282 (ниже числа смертей)</t>
+  </si>
+  <si>
+    <t>однако сумма рождений по губерниям даёт 306,951</t>
+  </si>
+  <si>
+    <t>значения для губерний сходятся с суммой для их уездов (единственно расхождение для Кубанской обл. на 6 человек)</t>
   </si>
 </sst>
 </file>
@@ -391,12 +401,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -411,7 +427,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -419,6 +435,7 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1947,8 +1964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{738F7A4D-582A-46D4-B5CA-77D599F7F49F}">
   <dimension ref="A1:D118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3098,8 +3115,8 @@
       <c r="B82" s="4">
         <v>7864202</v>
       </c>
-      <c r="C82" s="4">
-        <v>283282</v>
+      <c r="C82" s="5">
+        <v>306951</v>
       </c>
       <c r="D82" s="4">
         <v>288465</v>
@@ -3477,4 +3494,34 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44E64891-5439-4FFB-A499-228025C227D4}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/rtss-pre1917/src/main/resources/ugvi/1892.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/1892.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8D958E-ADFF-4639-A656-FF4CA6C344EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F13841B-A200-4448-8FF5-D3C102B82E45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18045" yWindow="1575" windowWidth="18495" windowHeight="21630" activeTab="2" xr2:uid="{334BE92A-37F0-460E-BD8C-585EA0EF21D5}"/>
+    <workbookView xWindow="15900" yWindow="1515" windowWidth="18495" windowHeight="21630" activeTab="1" xr2:uid="{334BE92A-37F0-460E-BD8C-585EA0EF21D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="112">
   <si>
     <t>губ</t>
   </si>
@@ -1964,8 +1964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{738F7A4D-582A-46D4-B5CA-77D599F7F49F}">
   <dimension ref="A1:D118"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="H72" sqref="H72"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3283,11 +3283,11 @@
       <c r="B94" s="4">
         <v>700000</v>
       </c>
-      <c r="C94" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>103</v>
+      <c r="C94" s="4">
+        <v>1954</v>
+      </c>
+      <c r="D94" s="4">
+        <v>1213</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -3500,7 +3500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44E64891-5439-4FFB-A499-228025C227D4}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>

--- a/rtss-pre1917/src/main/resources/ugvi/1892.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/1892.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F13841B-A200-4448-8FF5-D3C102B82E45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3A0275-467C-4A8D-8F68-8C6B31C0D0C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15900" yWindow="1515" windowWidth="18495" windowHeight="21630" activeTab="1" xr2:uid="{334BE92A-37F0-460E-BD8C-585EA0EF21D5}"/>
+    <workbookView xWindow="3630" yWindow="1875" windowWidth="18495" windowHeight="22125" activeTab="2" xr2:uid="{334BE92A-37F0-460E-BD8C-585EA0EF21D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="114">
   <si>
     <t>губ</t>
   </si>
@@ -369,6 +369,12 @@
   </si>
   <si>
     <t>значения для губерний сходятся с суммой для их уездов (единственно расхождение для Кубанской обл. на 6 человек)</t>
+  </si>
+  <si>
+    <t>однако сумма по губерниям даёт 309,999.</t>
+  </si>
+  <si>
+    <t>Число смертей на Кавказе указано 288,465</t>
   </si>
 </sst>
 </file>
@@ -1964,7 +1970,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{738F7A4D-582A-46D4-B5CA-77D599F7F49F}">
   <dimension ref="A1:D118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+    <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
@@ -3498,10 +3504,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44E64891-5439-4FFB-A499-228025C227D4}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3521,6 +3527,16 @@
         <v>111</v>
       </c>
     </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>112</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
